--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1413277.130198245</v>
+        <v>1358325.240914149</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013172</v>
+        <v>408938.3872013174</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079585</v>
       </c>
     </row>
     <row r="9">
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>194.2785622053515</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>74.34441370180275</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -1454,7 +1454,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>39.19605052942072</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>30.8116600404632</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>77.52012824943817</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>7.226885210985775</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>61.18249895369859</v>
       </c>
       <c r="W14" t="n">
-        <v>166.376709655641</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>135.3196301091069</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -1703,10 +1703,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>198.5042877203754</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.226885210985627</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>35.43975342014028</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.0600005062589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>34.29025008049238</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.84345120350706</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -1979,19 +1979,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>27.57432817881641</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8.916258666856974</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>52.42857711587121</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>51.45362830069287</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>37.3509825732928</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>85.74836542896368</v>
+        <v>104.8589437419714</v>
       </c>
       <c r="G21" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350707</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886887</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.226885210985795</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706155</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.00010435294824</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>130.7186667766792</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.87735204794381</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
@@ -2380,10 +2380,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>3.251602535902458</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -2417,7 +2417,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>109.7969997889522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10.67880083738547</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>8.916258666856974</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>315.7150106406981</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>210.676128235918</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>153.1172972319391</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>191.2370824185003</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>119.920671635353</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>185.5090622027478</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>99.97231329884586</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
@@ -2854,7 +2854,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>170.1666484929368</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>84.29594815633648</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350706</v>
+        <v>66.29441146596449</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>129.4825785166958</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>61.82895475236476</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>296.805665668692</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>136.8597451849905</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>123.4047989626378</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>152.3549420496105</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>20.04285776727058</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>65.37085232936231</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>180.6134426588829</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>16.05627234453558</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.632273684517419</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>287.1816666295665</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -3590,10 +3590,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
@@ -3602,7 +3602,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>2.902726579252032</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>22.70042032133687</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>155.8614510880961</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>80.39631948615289</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>222.4917166038015</v>
       </c>
       <c r="I41" t="n">
-        <v>54.18638560335626</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>143.804640628542</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -3839,7 +3839,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>164.63535306622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>80.39631948615266</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>27.20506161582979</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>148.3791733269025</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>21.23694995612732</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>173.5611362916662</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>10.67880083738541</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>137.4545982671963</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.31465285444515</v>
+        <v>1027.401555413734</v>
       </c>
       <c r="C11" t="n">
-        <v>34.31465285444515</v>
+        <v>1027.401555413734</v>
       </c>
       <c r="D11" t="n">
-        <v>34.31465285444515</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E11" t="n">
-        <v>34.31465285444515</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F11" t="n">
-        <v>34.31465285444515</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G11" t="n">
         <v>34.31465285444515</v>
@@ -5041,16 +5041,16 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292774</v>
       </c>
       <c r="N11" t="n">
         <v>1186.279026157782</v>
@@ -5074,19 +5074,19 @@
         <v>1413.548593210148</v>
       </c>
       <c r="U11" t="n">
-        <v>1160.987610990982</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="V11" t="n">
-        <v>836.8666174463841</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="W11" t="n">
-        <v>495.5570580264176</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="X11" t="n">
-        <v>420.4616906508592</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.31465285444515</v>
+        <v>1027.401555413734</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>263.3188973532195</v>
+        <v>565.0989658669706</v>
       </c>
       <c r="C12" t="n">
-        <v>73.90662308618326</v>
+        <v>375.6866915999343</v>
       </c>
       <c r="D12" t="n">
-        <v>73.90662308618326</v>
+        <v>214.9065753609661</v>
       </c>
       <c r="E12" t="n">
-        <v>73.90662308618326</v>
+        <v>214.9065753609661</v>
       </c>
       <c r="F12" t="n">
-        <v>73.90662308618326</v>
+        <v>214.9065753609661</v>
       </c>
       <c r="G12" t="n">
-        <v>73.90662308618326</v>
+        <v>65.43754178420596</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444515</v>
+        <v>65.43754178420596</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444515</v>
@@ -5123,49 +5123,49 @@
         <v>54.40930111025866</v>
       </c>
       <c r="K12" t="n">
-        <v>54.40930111025866</v>
+        <v>112.3287381944626</v>
       </c>
       <c r="L12" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498408</v>
       </c>
       <c r="M12" t="n">
-        <v>712.2060427186983</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N12" t="n">
-        <v>1115.439807218709</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O12" t="n">
-        <v>1428.572841265603</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P12" t="n">
-        <v>1657.813205638053</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722257</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775051</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U12" t="n">
-        <v>995.3051791025978</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="V12" t="n">
-        <v>752.2254610062319</v>
+        <v>1054.005529519983</v>
       </c>
       <c r="W12" t="n">
-        <v>482.8268917365232</v>
+        <v>784.6069602502743</v>
       </c>
       <c r="X12" t="n">
-        <v>263.3188973532195</v>
+        <v>565.0989658669706</v>
       </c>
       <c r="Y12" t="n">
-        <v>263.3188973532195</v>
+        <v>565.0989658669706</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444515</v>
@@ -5235,16 +5235,16 @@
         <v>334.857675380022</v>
       </c>
       <c r="V13" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>221.6975439683318</v>
+        <v>1170.560773140131</v>
       </c>
       <c r="C14" t="n">
-        <v>221.6975439683318</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D14" t="n">
-        <v>221.6975439683318</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E14" t="n">
-        <v>221.6975439683318</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J14" t="n">
         <v>79.26440887602985</v>
@@ -5284,10 +5284,10 @@
         <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292773</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5299,31 +5299,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S14" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="T14" t="n">
-        <v>1391.879729590323</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="U14" t="n">
-        <v>1139.318747371157</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="V14" t="n">
-        <v>1139.318747371157</v>
+        <v>1548.426672511679</v>
       </c>
       <c r="W14" t="n">
-        <v>971.2614648907116</v>
+        <v>1548.426672511679</v>
       </c>
       <c r="X14" t="n">
-        <v>607.8445817647458</v>
+        <v>1548.426672511679</v>
       </c>
       <c r="Y14" t="n">
-        <v>221.6975439683318</v>
+        <v>1548.426672511679</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1069.118384851047</v>
+        <v>867.9669970985512</v>
       </c>
       <c r="C15" t="n">
-        <v>879.7061105840106</v>
+        <v>678.5547228315149</v>
       </c>
       <c r="D15" t="n">
-        <v>718.9259943450423</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F15" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J15" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K15" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889813</v>
       </c>
       <c r="L15" t="n">
-        <v>478.319605488546</v>
+        <v>498.4142537443594</v>
       </c>
       <c r="M15" t="n">
-        <v>853.2112150416076</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N15" t="n">
-        <v>1256.444979541619</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O15" t="n">
-        <v>1569.578013588512</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P15" t="n">
         <v>1625.19346494006</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T15" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U15" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V15" t="n">
-        <v>1205.804879910751</v>
+        <v>1472.652924625892</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.804879910751</v>
+        <v>1472.652924625892</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.804879910751</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="Y15" t="n">
-        <v>1205.804879910751</v>
+        <v>1046.502850025486</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="C16" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="D16" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="E16" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="F16" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="G16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K16" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514567</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="T16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="U16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="V16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="W16" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1104.472803445397</v>
+        <v>866.9583142165512</v>
       </c>
       <c r="C17" t="n">
-        <v>750.7298767977416</v>
+        <v>866.9583142165512</v>
       </c>
       <c r="D17" t="n">
-        <v>409.5458771591282</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E17" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F17" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
         <v>34.31465285444516</v>
@@ -5524,7 +5524,7 @@
         <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157783</v>
@@ -5545,22 +5545,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="Y17" t="n">
-        <v>1482.338702816946</v>
+        <v>1244.8242135881</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>235.4660406069408</v>
+        <v>634.4236745123949</v>
       </c>
       <c r="C18" t="n">
-        <v>235.4660406069408</v>
+        <v>634.4236745123949</v>
       </c>
       <c r="D18" t="n">
-        <v>235.4660406069408</v>
+        <v>473.6435582734266</v>
       </c>
       <c r="E18" t="n">
-        <v>235.4660406069408</v>
+        <v>300.080354394841</v>
       </c>
       <c r="F18" t="n">
-        <v>235.4660406069408</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H18" t="n">
         <v>115.9747045751594</v>
@@ -5606,40 +5606,40 @@
         <v>873.305863297421</v>
       </c>
       <c r="N18" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O18" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P18" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025982</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062323</v>
+        <v>1079.572361960371</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365236</v>
+        <v>1079.572361960371</v>
       </c>
       <c r="X18" t="n">
-        <v>263.31889735322</v>
+        <v>860.0643675770673</v>
       </c>
       <c r="Y18" t="n">
-        <v>235.4660406069408</v>
+        <v>634.4236745123949</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J19" t="n">
         <v>34.31465285444516</v>
@@ -5700,25 +5700,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S19" t="n">
-        <v>334.857675380022</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="T19" t="n">
-        <v>334.857675380022</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32097474015927</v>
+        <v>281.8995166771218</v>
       </c>
       <c r="V19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>575.4404706159872</v>
+        <v>1268.917617085348</v>
       </c>
       <c r="C20" t="n">
-        <v>221.6975439683318</v>
+        <v>915.1746904376926</v>
       </c>
       <c r="D20" t="n">
-        <v>221.6975439683318</v>
+        <v>915.1746904376926</v>
       </c>
       <c r="E20" t="n">
-        <v>221.6975439683318</v>
+        <v>915.1746904376926</v>
       </c>
       <c r="F20" t="n">
-        <v>221.6975439683318</v>
+        <v>507.9027211043456</v>
       </c>
       <c r="G20" t="n">
-        <v>221.6975439683318</v>
+        <v>86.28801477433694</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>86.28801477433694</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444515</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193753</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389723</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M20" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157782</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R20" t="n">
-        <v>1715.732642722257</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S20" t="n">
-        <v>1519.054059427091</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="T20" t="n">
-        <v>1300.706612512099</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="U20" t="n">
-        <v>1300.706612512099</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="V20" t="n">
-        <v>976.5856189675013</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="W20" t="n">
-        <v>938.857353741953</v>
+        <v>1268.917617085348</v>
       </c>
       <c r="X20" t="n">
-        <v>575.4404706159872</v>
+        <v>1268.917617085348</v>
       </c>
       <c r="Y20" t="n">
-        <v>575.4404706159872</v>
+        <v>1268.917617085348</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>995.3051791025978</v>
+        <v>734.3373412894316</v>
       </c>
       <c r="C21" t="n">
-        <v>805.8929048355615</v>
+        <v>544.9250670223953</v>
       </c>
       <c r="D21" t="n">
-        <v>645.1127885965932</v>
+        <v>544.9250670223953</v>
       </c>
       <c r="E21" t="n">
-        <v>471.5495847180076</v>
+        <v>371.3618631438097</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H21" t="n">
         <v>115.9747045751594</v>
@@ -5831,25 +5831,25 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025863</v>
+        <v>54.40930111025866</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889813</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443594</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M21" t="n">
         <v>873.305863297421</v>
       </c>
       <c r="N21" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O21" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722257</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722257</v>
@@ -5861,22 +5861,22 @@
         <v>1448.884598007116</v>
       </c>
       <c r="T21" t="n">
-        <v>1234.878304775051</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="U21" t="n">
-        <v>995.3051791025978</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="V21" t="n">
-        <v>995.3051791025978</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="W21" t="n">
-        <v>995.3051791025978</v>
+        <v>1179.486028737408</v>
       </c>
       <c r="X21" t="n">
-        <v>995.3051791025978</v>
+        <v>959.978034354104</v>
       </c>
       <c r="Y21" t="n">
-        <v>995.3051791025978</v>
+        <v>734.3373412894316</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444515</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444515</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444515</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444515</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444515</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="G22" t="n">
         <v>34.31465285444515</v>
@@ -5913,49 +5913,49 @@
         <v>34.31465285444515</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514565</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306431</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316461</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800218</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.9755581809698</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>84.81980876651409</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>84.81980876651409</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>84.81980876651409</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>84.81980876651409</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>84.81980876651409</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444515</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444515</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444515</v>
+        <v>41.61453690594595</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.3537102046262</v>
+        <v>1173.264202262668</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3537102046262</v>
+        <v>819.5212756150129</v>
       </c>
       <c r="D23" t="n">
-        <v>34.31465285444515</v>
+        <v>819.5212756150129</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444515</v>
+        <v>819.5212756150129</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444515</v>
+        <v>412.2493062816659</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444515</v>
+        <v>412.2493062816659</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444515</v>
+        <v>76.6150084584288</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602939</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193745</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389715</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157782</v>
@@ -6010,31 +6010,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U23" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="V23" t="n">
-        <v>871.0801527505586</v>
+        <v>1173.264202262668</v>
       </c>
       <c r="W23" t="n">
-        <v>529.770593330592</v>
+        <v>1173.264202262668</v>
       </c>
       <c r="X23" t="n">
-        <v>166.3537102046262</v>
+        <v>1173.264202262668</v>
       </c>
       <c r="Y23" t="n">
-        <v>166.3537102046262</v>
+        <v>1173.264202262668</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1069.118384851047</v>
+        <v>656.399460018741</v>
       </c>
       <c r="C24" t="n">
-        <v>879.7061105840106</v>
+        <v>466.9871857517047</v>
       </c>
       <c r="D24" t="n">
-        <v>718.9259943450423</v>
+        <v>466.9871857517047</v>
       </c>
       <c r="E24" t="n">
-        <v>545.3627904664568</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F24" t="n">
-        <v>384.9350741837009</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>195.4144734331678</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L24" t="n">
         <v>478.319605488546</v>
@@ -6080,16 +6080,16 @@
         <v>853.2112150416076</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520716</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.95310056761</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P24" t="n">
         <v>1625.19346494006</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
         <v>1627.958867440572</v>
@@ -6101,19 +6101,19 @@
         <v>1627.958867440572</v>
       </c>
       <c r="U24" t="n">
-        <v>1627.958867440572</v>
+        <v>1388.385741768119</v>
       </c>
       <c r="V24" t="n">
-        <v>1627.958867440572</v>
+        <v>1145.306023671753</v>
       </c>
       <c r="W24" t="n">
-        <v>1358.560298170863</v>
+        <v>875.9074544020447</v>
       </c>
       <c r="X24" t="n">
-        <v>1358.560298170863</v>
+        <v>656.399460018741</v>
       </c>
       <c r="Y24" t="n">
-        <v>1247.654237777982</v>
+        <v>656.399460018741</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>1569.083501054873</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>1425.976287709191</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172878</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722257</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722257</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722257</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1048.145630292934</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="C26" t="n">
-        <v>694.402703645279</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D26" t="n">
-        <v>353.2187040066655</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E26" t="n">
-        <v>353.2187040066655</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F26" t="n">
-        <v>353.2187040066655</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G26" t="n">
-        <v>353.2187040066655</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H26" t="n">
         <v>34.31465285444516</v>
@@ -6226,19 +6226,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
@@ -6253,25 +6253,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1300.7066125121</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U26" t="n">
-        <v>1048.145630292934</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V26" t="n">
-        <v>1048.145630292934</v>
+        <v>1502.928472786987</v>
       </c>
       <c r="W26" t="n">
-        <v>1048.145630292934</v>
+        <v>1502.928472786987</v>
       </c>
       <c r="X26" t="n">
-        <v>1048.145630292934</v>
+        <v>1139.511589661021</v>
       </c>
       <c r="Y26" t="n">
-        <v>1048.145630292934</v>
+        <v>753.3645518646074</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1069.118384851047</v>
+        <v>895.5551809724614</v>
       </c>
       <c r="C27" t="n">
-        <v>879.7061105840106</v>
+        <v>706.142906705425</v>
       </c>
       <c r="D27" t="n">
-        <v>718.9259943450423</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="E27" t="n">
         <v>545.3627904664568</v>
@@ -6308,49 +6308,49 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186984</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O27" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.813205638054</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T27" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U27" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="V27" t="n">
-        <v>1627.958867440573</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="W27" t="n">
-        <v>1627.958867440573</v>
+        <v>1267.259804019094</v>
       </c>
       <c r="X27" t="n">
-        <v>1473.294930842654</v>
+        <v>1267.259804019094</v>
       </c>
       <c r="Y27" t="n">
-        <v>1247.654237777982</v>
+        <v>1074.091033899397</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.4466444053068</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4466444053068</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D28" t="n">
-        <v>155.4466444053068</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E28" t="n">
-        <v>155.4466444053068</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
         <v>34.31465285444516</v>
@@ -6387,7 +6387,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306432</v>
@@ -6420,16 +6420,16 @@
         <v>334.857675380022</v>
       </c>
       <c r="V28" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W28" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X28" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y28" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>932.5630660962519</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="C29" t="n">
-        <v>932.5630660962519</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="D29" t="n">
-        <v>932.5630660962519</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="E29" t="n">
-        <v>557.3318417915689</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="F29" t="n">
-        <v>557.3318417915689</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3318417915689</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H29" t="n">
         <v>221.6975439683318</v>
@@ -6463,25 +6463,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K29" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
         <v>1715.732642722258</v>
@@ -6493,22 +6493,22 @@
         <v>1610.227176505315</v>
       </c>
       <c r="T29" t="n">
-        <v>1509.245041860016</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="U29" t="n">
-        <v>1256.68405964085</v>
+        <v>1139.318747371158</v>
       </c>
       <c r="V29" t="n">
-        <v>932.5630660962519</v>
+        <v>815.1977538265595</v>
       </c>
       <c r="W29" t="n">
-        <v>932.5630660962519</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="X29" t="n">
-        <v>932.5630660962519</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="Y29" t="n">
-        <v>932.5630660962519</v>
+        <v>643.3122502983405</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>980.7026033525992</v>
+        <v>744.1732353004271</v>
       </c>
       <c r="C30" t="n">
-        <v>791.2903290855629</v>
+        <v>554.7609610333908</v>
       </c>
       <c r="D30" t="n">
-        <v>630.5102128465946</v>
+        <v>554.7609610333908</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3627904664568</v>
+        <v>381.1977571548052</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9350741837009</v>
+        <v>220.7700408720493</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>220.7700408720493</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>101.2787048402679</v>
       </c>
       <c r="I30" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K30" t="n">
-        <v>112.3287381944635</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L30" t="n">
-        <v>395.2338702498417</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M30" t="n">
-        <v>770.1254798029032</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N30" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U30" t="n">
-        <v>1627.958867440573</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V30" t="n">
-        <v>1384.879149344207</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="W30" t="n">
-        <v>1384.879149344207</v>
+        <v>963.6812296837307</v>
       </c>
       <c r="X30" t="n">
-        <v>1384.879149344207</v>
+        <v>744.1732353004271</v>
       </c>
       <c r="Y30" t="n">
-        <v>1159.238456279534</v>
+        <v>744.1732353004271</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444516</v>
+        <v>165.105136204643</v>
       </c>
       <c r="H31" t="n">
         <v>34.31465285444516</v>
@@ -6642,31 +6642,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R31" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1132.747656646304</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="C32" t="n">
-        <v>1132.747656646304</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="D32" t="n">
-        <v>791.5636570076908</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="E32" t="n">
-        <v>791.5636570076908</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="F32" t="n">
-        <v>791.5636570076908</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G32" t="n">
         <v>369.9489506776823</v>
@@ -6700,16 +6700,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K32" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157782</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U32" t="n">
-        <v>1132.747656646304</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V32" t="n">
-        <v>1132.747656646304</v>
+        <v>1163.367957807443</v>
       </c>
       <c r="W32" t="n">
-        <v>1132.747656646304</v>
+        <v>1163.367957807443</v>
       </c>
       <c r="X32" t="n">
-        <v>1132.747656646304</v>
+        <v>1163.367957807443</v>
       </c>
       <c r="Y32" t="n">
-        <v>1132.747656646304</v>
+        <v>777.2209200110292</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>172.556819707971</v>
+        <v>629.642831036402</v>
       </c>
       <c r="C33" t="n">
-        <v>34.31465285444516</v>
+        <v>629.642831036402</v>
       </c>
       <c r="D33" t="n">
-        <v>34.31465285444516</v>
+        <v>468.8627147974337</v>
       </c>
       <c r="E33" t="n">
-        <v>34.31465285444516</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F33" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G33" t="n">
         <v>34.31465285444516</v>
@@ -6791,13 +6791,13 @@
         <v>873.305863297421</v>
       </c>
       <c r="N33" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O33" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
@@ -6806,25 +6806,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1536.658373288803</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T33" t="n">
-        <v>1322.652080056737</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U33" t="n">
-        <v>1083.078954384284</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="V33" t="n">
-        <v>839.9992362879184</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="W33" t="n">
-        <v>570.6006670182097</v>
+        <v>1027.686678346641</v>
       </c>
       <c r="X33" t="n">
-        <v>351.0926726349061</v>
+        <v>808.1786839633371</v>
       </c>
       <c r="Y33" t="n">
-        <v>351.0926726349061</v>
+        <v>808.1786839633371</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C34" t="n">
-        <v>1561.838761864066</v>
+        <v>334.857675380022</v>
       </c>
       <c r="D34" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="E34" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="F34" t="n">
-        <v>1415.189620196681</v>
+        <v>194.527491320985</v>
       </c>
       <c r="G34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L34" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M34" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1374.423083302291</v>
+        <v>454.0887434711534</v>
       </c>
       <c r="C35" t="n">
-        <v>1374.423083302291</v>
+        <v>100.345816823498</v>
       </c>
       <c r="D35" t="n">
-        <v>1374.423083302291</v>
+        <v>100.345816823498</v>
       </c>
       <c r="E35" t="n">
-        <v>999.1918589976084</v>
+        <v>100.345816823498</v>
       </c>
       <c r="F35" t="n">
-        <v>978.9465481215775</v>
+        <v>100.345816823498</v>
       </c>
       <c r="G35" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292784</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.732642722258</v>
@@ -6967,22 +6967,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.732642722258</v>
+        <v>1173.264202262669</v>
       </c>
       <c r="W35" t="n">
-        <v>1374.423083302291</v>
+        <v>831.9546428427022</v>
       </c>
       <c r="X35" t="n">
-        <v>1374.423083302291</v>
+        <v>831.9546428427022</v>
       </c>
       <c r="Y35" t="n">
-        <v>1374.423083302291</v>
+        <v>831.9546428427022</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>251.6844975206131</v>
+        <v>216.7524737220037</v>
       </c>
       <c r="C36" t="n">
-        <v>251.6844975206131</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D36" t="n">
-        <v>251.6844975206131</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E36" t="n">
-        <v>251.6844975206131</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F36" t="n">
-        <v>251.6844975206131</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>54.40930111025867</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>337.3144331656368</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M36" t="n">
-        <v>712.2060427186984</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N36" t="n">
-        <v>1115.43980721871</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.572841265604</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P36" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T36" t="n">
-        <v>1448.884598007117</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U36" t="n">
-        <v>1209.311472334664</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V36" t="n">
-        <v>966.2317542382978</v>
+        <v>931.2997304396883</v>
       </c>
       <c r="W36" t="n">
-        <v>696.8331849685891</v>
+        <v>661.9011611699797</v>
       </c>
       <c r="X36" t="n">
-        <v>477.3251905852854</v>
+        <v>442.393166786676</v>
       </c>
       <c r="Y36" t="n">
-        <v>251.6844975206131</v>
+        <v>216.7524737220037</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F37" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1545.980103546879</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1323.896439587947</v>
+        <v>809.6722858321092</v>
       </c>
       <c r="C38" t="n">
-        <v>970.1535129402921</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D38" t="n">
-        <v>628.9695133016787</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E38" t="n">
-        <v>628.9695133016787</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F38" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H38" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I38" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602999</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L38" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M38" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O38" t="n">
         <v>1460.632785841149</v>
@@ -7207,19 +7207,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1173.089168958075</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.732642722258</v>
+        <v>809.6722858321092</v>
       </c>
       <c r="Y38" t="n">
-        <v>1329.585604925844</v>
+        <v>809.6722858321092</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.118384851047</v>
+        <v>656.3994600187408</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7061105840106</v>
+        <v>466.9871857517045</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>306.2070695127362</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>306.2070695127362</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>306.2070695127362</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>156.7380359359761</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>37.24669990419468</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K39" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>478.319605488546</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M39" t="n">
-        <v>853.2112150416076</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N39" t="n">
-        <v>1256.444979541619</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P39" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T39" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U39" t="n">
-        <v>1715.732642722258</v>
+        <v>1388.385741768119</v>
       </c>
       <c r="V39" t="n">
-        <v>1715.732642722258</v>
+        <v>1145.306023671753</v>
       </c>
       <c r="W39" t="n">
-        <v>1692.802925225958</v>
+        <v>875.9074544020444</v>
       </c>
       <c r="X39" t="n">
-        <v>1473.294930842654</v>
+        <v>656.3994600187408</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.654237777982</v>
+        <v>656.3994600187408</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>177.421866200127</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>177.421866200127</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>177.421866200127</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>177.421866200127</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>177.421866200127</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>177.421866200127</v>
       </c>
       <c r="W40" t="n">
-        <v>1634.524239200891</v>
+        <v>177.421866200127</v>
       </c>
       <c r="X40" t="n">
-        <v>1634.524239200891</v>
+        <v>177.421866200127</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>177.421866200127</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>831.9546428427022</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="C41" t="n">
-        <v>831.9546428427022</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="D41" t="n">
-        <v>831.9546428427022</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="E41" t="n">
-        <v>831.9546428427022</v>
+        <v>1087.940436198408</v>
       </c>
       <c r="F41" t="n">
-        <v>424.6826735093553</v>
+        <v>680.6684668650614</v>
       </c>
       <c r="G41" t="n">
-        <v>424.6826735093553</v>
+        <v>259.0537605350528</v>
       </c>
       <c r="H41" t="n">
-        <v>89.04837568611816</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K41" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M41" t="n">
         <v>856.6460009292778</v>
@@ -7429,7 +7429,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q41" t="n">
         <v>1715.732642722258</v>
@@ -7441,22 +7441,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1497.385195807267</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U41" t="n">
-        <v>1497.385195807267</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V41" t="n">
-        <v>1173.264202262669</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W41" t="n">
-        <v>831.9546428427022</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X41" t="n">
-        <v>831.9546428427022</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y41" t="n">
-        <v>831.9546428427022</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1069.118384851047</v>
+        <v>769.740067740814</v>
       </c>
       <c r="C42" t="n">
-        <v>879.7061105840106</v>
+        <v>769.740067740814</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>608.9599515018457</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
@@ -7493,49 +7493,49 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443595</v>
+        <v>337.3144331656368</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029032</v>
+        <v>712.2060427186984</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302914</v>
+        <v>1115.43980721871</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1428.572841265604</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722258</v>
+        <v>1657.813205638054</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T42" t="n">
-        <v>1413.952574208507</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U42" t="n">
-        <v>1413.952574208507</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="V42" t="n">
-        <v>1413.952574208507</v>
+        <v>1258.646631393826</v>
       </c>
       <c r="W42" t="n">
-        <v>1413.952574208507</v>
+        <v>989.2480621241176</v>
       </c>
       <c r="X42" t="n">
-        <v>1413.952574208507</v>
+        <v>769.740067740814</v>
       </c>
       <c r="Y42" t="n">
-        <v>1247.654237777982</v>
+        <v>769.740067740814</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.5230563758115</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>115.5230563758115</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>115.5230563758115</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>115.5230563758115</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
         <v>34.31465285444516</v>
@@ -7572,7 +7572,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L43" t="n">
         <v>105.4471208306432</v>
@@ -7596,25 +7596,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S43" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T43" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U43" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V43" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W43" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5230563758115</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>750.7298767977416</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="C44" t="n">
-        <v>750.7298767977416</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D44" t="n">
         <v>409.5458771591282</v>
@@ -7648,52 +7648,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193756</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N44" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q44" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1688.252782504248</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1688.252782504248</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="T44" t="n">
-        <v>1469.905335589257</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U44" t="n">
-        <v>1469.905335589257</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V44" t="n">
-        <v>1469.905335589257</v>
+        <v>1150.828659656643</v>
       </c>
       <c r="W44" t="n">
-        <v>1128.59577616929</v>
+        <v>1150.828659656643</v>
       </c>
       <c r="X44" t="n">
-        <v>1128.59577616929</v>
+        <v>787.411776530677</v>
       </c>
       <c r="Y44" t="n">
-        <v>1128.59577616929</v>
+        <v>787.411776530677</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>740.3774589471911</v>
+        <v>343.2182631532629</v>
       </c>
       <c r="C45" t="n">
-        <v>718.9259943450423</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="D45" t="n">
-        <v>718.9259943450423</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="E45" t="n">
-        <v>545.3627904664568</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F45" t="n">
-        <v>384.9350741837009</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G45" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
@@ -7730,13 +7730,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
-        <v>112.3287381944635</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2338702498417</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M45" t="n">
-        <v>770.1254798029032</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N45" t="n">
         <v>1173.359244302914</v>
@@ -7751,28 +7751,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T45" t="n">
-        <v>1413.952574208507</v>
+        <v>1540.418363639767</v>
       </c>
       <c r="U45" t="n">
-        <v>1413.952574208507</v>
+        <v>1300.845237967314</v>
       </c>
       <c r="V45" t="n">
-        <v>1413.952574208507</v>
+        <v>1057.765519870948</v>
       </c>
       <c r="W45" t="n">
-        <v>1144.554004938799</v>
+        <v>788.3669506012388</v>
       </c>
       <c r="X45" t="n">
-        <v>1144.554004938799</v>
+        <v>568.8589562179352</v>
       </c>
       <c r="Y45" t="n">
-        <v>918.9133118741263</v>
+        <v>343.2182631532629</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.857675380022</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="C46" t="n">
-        <v>324.0710078675115</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="D46" t="n">
-        <v>177.421866200127</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H46" t="n">
         <v>34.31465285444516</v>
@@ -7809,7 +7809,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L46" t="n">
         <v>105.4471208306432</v>
@@ -7833,25 +7833,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S46" t="n">
-        <v>334.857675380022</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="T46" t="n">
-        <v>334.857675380022</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="U46" t="n">
-        <v>334.857675380022</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="V46" t="n">
-        <v>334.857675380022</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="W46" t="n">
-        <v>334.857675380022</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="X46" t="n">
-        <v>334.857675380022</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.857675380022</v>
+        <v>196.0146468272985</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>8.64638209049167</v>
+        <v>67.150863993728</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.1808494245542</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
@@ -9017,13 +9017,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526875</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>30.98517405756592</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9254,16 +9254,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>102.1412644882571</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9491,7 +9491,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>206.3912489842003</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131762</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9728,13 +9728,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>135.2351585535088</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>30.98517405756592</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9895,7 +9895,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5801139476187</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9956,7 +9956,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.1808494245546</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>87.44848849455063</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,7 +10202,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526882</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10439,13 +10439,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>10.68754955674481</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K36" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,10 +10682,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890791</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.1808494245542</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.574606631504</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
         <v>210.0462273461148</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -10913,16 +10913,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O39" t="n">
-        <v>171.29779780172</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11141,13 +11141,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
-        <v>197.554271719578</v>
+        <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
         <v>310.6138585746227</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>103.1808494245539</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461154</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11378,10 +11378,10 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K45" t="n">
-        <v>87.44848849455063</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3045437566416</v>
+        <v>156.3795586670407</v>
       </c>
       <c r="M45" t="n">
         <v>301.77688131</v>
@@ -23263,16 +23263,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>143.4935974368758</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>332.2779548450047</v>
@@ -23314,16 +23314,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>285.4383005929034</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -23351,13 +23351,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>79.10037214204289</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>50.03179116304386</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>82.56286578368658</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>237.8821299734641</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>417.3985592667085</v>
@@ -23515,7 +23515,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>259.6972846554534</v>
       </c>
       <c r="W14" t="n">
-        <v>171.5197541701259</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.43086428855887</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
@@ -23639,10 +23639,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>18.80862671909523</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0550137836253</v>
+        <v>160.8281285726397</v>
       </c>
       <c r="H16" t="n">
         <v>160.0829940331247</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
@@ -23715,7 +23715,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>221.9194554082425</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>302.332406222087</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>332.2779548450047</v>
@@ -23785,10 +23785,10 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23800,7 +23800,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>151.225566912191</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -23816,19 +23816,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>124.533189039436</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>195.8099579552092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>65.66803606867889</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>171.7556116853853</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>290.3107070893353</v>
@@ -23980,16 +23980,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>134.0554339020549</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>300.5454812524741</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24053,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>73.07507369096466</v>
+        <v>53.96449537795695</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.0550137836253</v>
+        <v>160.8281285726395</v>
       </c>
       <c r="H22" t="n">
         <v>160.0829940331247</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
         <v>224.1841888012565</v>
@@ -24189,7 +24189,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>240.3106027363871</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24208,25 +24208,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>207.0534928655481</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>143.631710154804</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>168.5759693038972</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,19 +24341,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>113.5872863450734</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24369,13 +24369,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>128.2480813810612</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24420,7 +24420,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24429,7 +24429,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>213.0031967413856</v>
       </c>
       <c r="Y25" t="n">
         <v>217.1412728141684</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>16.56294420430658</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24493,25 +24493,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>110.203655373234</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>211.8662302997449</v>
@@ -24584,13 +24584,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>64.19561720753146</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>32.14720371552536</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -24612,7 +24612,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>168.0550137836253</v>
@@ -24621,7 +24621,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I28" t="n">
-        <v>25.51249767999406</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
         <v>74.58429473553586</v>
@@ -24660,7 +24660,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
-        <v>245.1090151844499</v>
+        <v>86.49830510257547</v>
       </c>
       <c r="W28" t="n">
         <v>290.3107070893353</v>
@@ -24688,16 +24688,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>116.1916591469959</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>167.72981533283</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>87.5316236834632</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.54903973754257</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
@@ -24815,19 +24815,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24852,10 +24852,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>160.0829940331247</v>
+        <v>30.60041551642894</v>
       </c>
       <c r="I31" t="n">
         <v>145.433169315347</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
@@ -24922,16 +24922,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>188.2064176446098</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>24.07411794045998</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,19 +24998,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>50.65840633937538</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>48.42277287716188</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
@@ -25049,13 +25049,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>14.10223892236183</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0550137836253</v>
+        <v>9.44430370175084</v>
       </c>
       <c r="H34" t="n">
         <v>160.0829940331247</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>383.1563918727429</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>352.0277069373462</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25235,7 +25235,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>6.904708865483002</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -25247,13 +25247,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>131.9180708964569</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
-        <v>30.60041551642877</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I37" t="n">
         <v>145.433169315347</v>
@@ -25365,7 +25365,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0023972007068</v>
+        <v>62.39168711883235</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213336334641</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>368.4549666933159</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>50.71479719620044</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.94072462425503</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>177.283526739121</v>
@@ -25526,19 +25526,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>244.0041632556747</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -25602,7 +25602,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0023972007068</v>
+        <v>65.14094611261069</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25611,13 +25611,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>209.9143876031824</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>109.7862382412031</v>
       </c>
       <c r="I41" t="n">
-        <v>131.3226765993915</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>28.02293121125766</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
         <v>177.283526739121</v>
@@ -25766,16 +25766,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>58.74893306780558</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>58.53056273229399</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.0550137836253</v>
@@ -25836,13 +25836,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>215.2679301343996</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25854,7 +25854,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>77.2453499389437</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>172.5006102822495</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>166.2812015682386</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>38.30509400807867</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>155.7783801345869</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -26040,7 +26040,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
@@ -26073,7 +26073,7 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
-        <v>224.1841888012565</v>
+        <v>86.72959053406021</v>
       </c>
       <c r="T46" t="n">
         <v>221.0023972007068</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>589024.4879803903</v>
+        <v>589024.4879803901</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>589024.4879803903</v>
+        <v>589024.4879803902</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>589024.4879803903</v>
+        <v>589024.4879803902</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>589024.4879803903</v>
+        <v>589024.4879803902</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>589024.4879803903</v>
+        <v>589024.4879803902</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>589024.4879803903</v>
+        <v>589024.4879803901</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595304.0967441106</v>
+        <v>595304.0967441107</v>
       </c>
       <c r="C2" t="n">
-        <v>595304.0967441103</v>
+        <v>595304.0967441105</v>
       </c>
       <c r="D2" t="n">
         <v>595304.0967441102</v>
       </c>
       <c r="E2" t="n">
+        <v>338123.8689204558</v>
+      </c>
+      <c r="F2" t="n">
         <v>338123.8689204556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>338123.8689204557</v>
       </c>
-      <c r="G2" t="n">
-        <v>338123.8689204556</v>
-      </c>
       <c r="H2" t="n">
-        <v>338123.8689204556</v>
+        <v>338123.8689204555</v>
       </c>
       <c r="I2" t="n">
         <v>338123.8689204556</v>
       </c>
       <c r="J2" t="n">
+        <v>338123.8689204557</v>
+      </c>
+      <c r="K2" t="n">
+        <v>338123.8689204559</v>
+      </c>
+      <c r="L2" t="n">
+        <v>338123.8689204556</v>
+      </c>
+      <c r="M2" t="n">
         <v>338123.8689204558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>338123.8689204556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>338123.8689204559</v>
-      </c>
-      <c r="M2" t="n">
-        <v>338123.8689204556</v>
       </c>
       <c r="N2" t="n">
         <v>338123.8689204557</v>
@@ -26355,7 +26355,7 @@
         <v>338123.8689204557</v>
       </c>
       <c r="P2" t="n">
-        <v>338123.8689204557</v>
+        <v>338123.8689204558</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742393</v>
+        <v>106891.8593742394</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="C4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="D4" t="n">
-        <v>430234.1355076952</v>
+        <v>430234.1355076953</v>
       </c>
       <c r="E4" t="n">
         <v>50852.65536393007</v>
@@ -26438,10 +26438,10 @@
         <v>50852.65536393008</v>
       </c>
       <c r="I4" t="n">
-        <v>50852.65536393007</v>
+        <v>50852.65536393008</v>
       </c>
       <c r="J4" t="n">
-        <v>50852.65536393009</v>
+        <v>50852.65536393008</v>
       </c>
       <c r="K4" t="n">
         <v>50852.65536393008</v>
@@ -26450,16 +26450,16 @@
         <v>50852.65536393008</v>
       </c>
       <c r="M4" t="n">
-        <v>50852.65536393007</v>
+        <v>50852.65536393008</v>
       </c>
       <c r="N4" t="n">
         <v>50852.65536393008</v>
       </c>
       <c r="O4" t="n">
-        <v>50852.65536393008</v>
+        <v>50852.65536393007</v>
       </c>
       <c r="P4" t="n">
-        <v>50852.6553639301</v>
+        <v>50852.65536393007</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>36091.33751189044</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="G5" t="n">
         <v>36091.33751189045</v>
@@ -26490,28 +26490,28 @@
         <v>36091.33751189044</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="K5" t="n">
         <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
+        <v>36091.33751189045</v>
+      </c>
+      <c r="M5" t="n">
         <v>36091.33751189046</v>
-      </c>
-      <c r="M5" t="n">
-        <v>36091.33751189045</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131442.3612364154</v>
+        <v>131397.6973943635</v>
       </c>
       <c r="C6" t="n">
-        <v>131442.3612364152</v>
+        <v>131397.6973943633</v>
       </c>
       <c r="D6" t="n">
-        <v>131442.361236415</v>
+        <v>131397.6973943631</v>
       </c>
       <c r="E6" t="n">
-        <v>-245873.2757728574</v>
+        <v>-255443.1332380074</v>
       </c>
       <c r="F6" t="n">
-        <v>251179.8760446352</v>
+        <v>241610.0185794849</v>
       </c>
       <c r="G6" t="n">
-        <v>251179.8760446351</v>
+        <v>241610.0185794849</v>
       </c>
       <c r="H6" t="n">
-        <v>251179.876044635</v>
+        <v>241610.0185794847</v>
       </c>
       <c r="I6" t="n">
-        <v>251179.8760446351</v>
+        <v>241610.0185794848</v>
       </c>
       <c r="J6" t="n">
-        <v>251179.8760446353</v>
+        <v>241610.0185794849</v>
       </c>
       <c r="K6" t="n">
-        <v>251179.8760446351</v>
+        <v>241610.0185794851</v>
       </c>
       <c r="L6" t="n">
-        <v>251179.8760446354</v>
+        <v>241610.0185794849</v>
       </c>
       <c r="M6" t="n">
-        <v>144288.0166703958</v>
+        <v>134718.1592052457</v>
       </c>
       <c r="N6" t="n">
-        <v>251179.8760446351</v>
+        <v>241610.018579485</v>
       </c>
       <c r="O6" t="n">
-        <v>251179.8760446351</v>
+        <v>241610.018579485</v>
       </c>
       <c r="P6" t="n">
-        <v>251179.8760446351</v>
+        <v>241610.0185794851</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="G3" t="n">
         <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409234</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
         <v>459.2752909409236</v>
@@ -26801,7 +26801,7 @@
         <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="G4" t="n">
         <v>428.9331606805645</v>
@@ -26810,28 +26810,28 @@
         <v>428.9331606805644</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="K4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
+        <v>428.9331606805645</v>
+      </c>
+      <c r="M4" t="n">
         <v>428.9331606805646</v>
       </c>
-      <c r="M4" t="n">
-        <v>428.9331606805645</v>
-      </c>
       <c r="N4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805643</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,22 +31995,22 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J14" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O14" t="n">
         <v>311.086310257377</v>
@@ -32019,16 +32019,16 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R14" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K15" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L15" t="n">
         <v>214.4945592267021</v>
@@ -32089,28 +32089,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O15" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q15" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N16" t="n">
         <v>126.7373929903044</v>
@@ -32174,22 +32174,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P16" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.846332827903208</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
         <v>18.90875607376374</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773851</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J20" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675594</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.0863102573769</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P20" t="n">
         <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T20" t="n">
-        <v>8.082321954146298</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1477066262322566</v>
+        <v>0.1477066262322567</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993448</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433146</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I21" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357013</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K21" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
         <v>214.4945592267021</v>
       </c>
       <c r="M21" t="n">
-        <v>250.3050335628032</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953379</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O21" t="n">
-        <v>235.0406293176629</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q21" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943127</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06499178645390428</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196978</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315138</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I22" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368851</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
         <v>126.7373929903044</v>
@@ -32648,22 +32648,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P22" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207943</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186568</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107448</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>58.50448190323633</v>
       </c>
       <c r="L12" t="n">
         <v>285.7627596518971</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.50448190323659</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K14" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L14" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O14" t="n">
         <v>277.1250097811782</v>
@@ -35667,7 +35667,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>162.7270914936592</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518971</v>
@@ -35737,16 +35737,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063588</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P15" t="n">
-        <v>56.17722358742201</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O18" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>127.3333140181132</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.4037939611966</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046432</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811781</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P20" t="n">
         <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002258</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.2976245008217</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936592</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
@@ -36211,16 +36211,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>303.0842232378716</v>
+        <v>211.6305083063586</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>231.5559236085353</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970204</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L22" t="n">
-        <v>63.8552541267651</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M22" t="n">
-        <v>76.00912912692034</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793114</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186791</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144087</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
-        <v>231.9281328071802</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5559236085354</v>
+        <v>56.17722358742201</v>
       </c>
       <c r="Q24" t="n">
         <v>91.45371493151264</v>
@@ -36615,7 +36615,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002317</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518971</v>
@@ -36685,7 +36685,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N27" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.50448190323704</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K30" t="n">
-        <v>78.80210640405896</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -36922,7 +36922,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063595</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867616</v>
@@ -36931,7 +36931,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N33" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>35.8795990866009</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
         <v>91.45371493151264</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518971</v>
@@ -37402,10 +37402,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189352</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.50448190323659</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.4037939611968</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K38" t="n">
         <v>176.3970685286315</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
@@ -37633,16 +37633,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N39" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063586</v>
       </c>
       <c r="O39" t="n">
-        <v>232.3710088971608</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
@@ -37861,13 +37861,13 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M42" t="n">
-        <v>274.4557838975189</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N42" t="n">
         <v>407.306832828294</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>58.50448190323635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286321</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
         <v>274.3746085046433</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>78.80210640405896</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>201.8377745622963</v>
       </c>
       <c r="M45" t="n">
         <v>378.6783934879409</v>
